--- a/1 Project Charter/Develop Stakeholder Register WB.xlsx
+++ b/1 Project Charter/Develop Stakeholder Register WB.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{458994BF-13EB-4F33-9D06-1533161B0333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Save\Phenikaa University\PM\Capstone-Project-Scenario-Phenikaa\1 Project Charter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62F2148-1F55-4521-8B22-DC297905B6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Organization</t>
   </si>
@@ -70,7 +75,100 @@
     <t>Stakeholder Register</t>
   </si>
   <si>
-    <t xml:space="preserve">Version: </t>
+    <t>Mary Lin</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Key project advocate and supporter</t>
+  </si>
+  <si>
+    <t>Mary Smithers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sponsor </t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Cary Manning</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Priya Service</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>IT lead</t>
+  </si>
+  <si>
+    <t>Ram Samuels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing </t>
+  </si>
+  <si>
+    <t>supporter</t>
+  </si>
+  <si>
+    <t>Marketing Director</t>
+  </si>
+  <si>
+    <t>Oscar Money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance </t>
+  </si>
+  <si>
+    <t>Finance Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keiko Tanaka	</t>
+  </si>
+  <si>
+    <t>Project Core Team</t>
+  </si>
+  <si>
+    <t>Jose Garcia</t>
+  </si>
+  <si>
+    <t>Cal Hamer</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Project approval and funding</t>
+  </si>
+  <si>
+    <t>Responsible for managing the project</t>
+  </si>
+  <si>
+    <t>Operational lead, advisor, SME</t>
+  </si>
+  <si>
+    <t>Manage and control funds disbursements</t>
+  </si>
+  <si>
+    <t>Responsible for marketing aspects of the project</t>
+  </si>
+  <si>
+    <t>Responsible for product backlog management, VOC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Version: 1, 12 Feb 2024</t>
   </si>
 </sst>
 </file>
@@ -372,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,9 +493,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -445,6 +541,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,30 +843,30 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="51.81640625" customWidth="1"/>
-    <col min="8" max="8" width="36.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="51.77734375" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -787,97 +892,211 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="13"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -885,19 +1104,19 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="15"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -907,88 +1126,88 @@
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="19" t="s">
+      <c r="G15" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="1:8" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="19" t="s">
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="19" t="s">
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="19" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="26"/>
-      <c r="B19" s="19" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="10"/>
     </row>
   </sheetData>

--- a/1 Project Charter/Develop Stakeholder Register WB.xlsx
+++ b/1 Project Charter/Develop Stakeholder Register WB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Save\Phenikaa University\PM\Capstone-Project-Scenario-Phenikaa\1 Project Charter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62F2148-1F55-4521-8B22-DC297905B6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC02D405-C947-46FD-B5F4-BA1599DDAC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Organization</t>
   </si>
@@ -506,6 +506,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,15 +550,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,8 +842,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,16 +855,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
@@ -902,15 +902,15 @@
       <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="31" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -924,15 +924,19 @@
       <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="31" t="s">
+      <c r="D4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -946,15 +950,19 @@
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="31" t="s">
+      <c r="D5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -968,17 +976,17 @@
       <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -992,17 +1000,15 @@
       <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="31" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1016,17 +1022,13 @@
       <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="31" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1040,15 +1042,17 @@
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31" t="s">
+      <c r="D9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1062,15 +1066,17 @@
       <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="31" t="s">
+      <c r="D10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1084,15 +1090,13 @@
       <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="31" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1104,7 +1108,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="31"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
@@ -1114,7 +1118,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="32"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
@@ -1127,7 +1131,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -1139,13 +1143,13 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="17" t="s">
         <v>2</v>
       </c>
@@ -1155,11 +1159,11 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="17" t="s">
         <v>3</v>
       </c>
@@ -1169,11 +1173,11 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="17" t="s">
         <v>4</v>
       </c>
@@ -1183,11 +1187,11 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="17" t="s">
         <v>5</v>
       </c>
@@ -1197,8 +1201,8 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
